--- a/AIdGLendInCheck/Test Data/InputData.xlsx
+++ b/AIdGLendInCheck/Test Data/InputData.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TestData" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Environment</t>
   </si>
@@ -59,6 +60,12 @@
   </si>
   <si>
     <t>lic_lender@mailinator.com</t>
+  </si>
+  <si>
+    <t>txtSearchMerchant</t>
+  </si>
+  <si>
+    <t>Smith</t>
   </si>
 </sst>
 </file>
@@ -69,7 +76,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +108,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -161,7 +176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,6 +198,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -206,20 +225,21 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -286,4 +306,41 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9183673469388"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>